--- a/Datasett/fiskeplasser-i-gjesdal-kommune.xlsx
+++ b/Datasett/fiskeplasser-i-gjesdal-kommune.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="fiskeplasser-i-gjesdal-kommune" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+  <si>
+    <t>Tabell 1</t>
+  </si>
   <si>
     <t>Nord</t>
   </si>
@@ -58,7 +52,7 @@
     <t>Orrevassdraget</t>
   </si>
   <si>
-    <t xml:space="preserve">Ã˜ygardsvatnet </t>
+    <t xml:space="preserve">Øygardsvatnet </t>
   </si>
   <si>
     <t xml:space="preserve">Ta kontakt med grunneier </t>
@@ -76,10 +70,10 @@
     <t>58.70215547</t>
   </si>
   <si>
-    <t xml:space="preserve">HÃ¥vassdraget </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BastlitjÃ¸rna </t>
+    <t xml:space="preserve">Håvassdraget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastlitjørna </t>
   </si>
   <si>
     <t>6510260.15</t>
@@ -145,7 +139,7 @@
     <t xml:space="preserve">Figgjovassdraget </t>
   </si>
   <si>
-    <t xml:space="preserve">NordÃ¥svatnet </t>
+    <t xml:space="preserve">Nordåsvatnet </t>
   </si>
   <si>
     <t>6511747.94</t>
@@ -220,7 +214,7 @@
     <t>58.71672702</t>
   </si>
   <si>
-    <t>KringlelitjÃ¸rn</t>
+    <t>Kringlelitjørn</t>
   </si>
   <si>
     <t>6513650.15</t>
@@ -265,7 +259,7 @@
     <t>58.73501779</t>
   </si>
   <si>
-    <t xml:space="preserve">Ã˜ystrevatnet </t>
+    <t xml:space="preserve">Øystrevatnet </t>
   </si>
   <si>
     <t>6517102.07</t>
@@ -298,7 +292,7 @@
     <t>Edlandsvatnet</t>
   </si>
   <si>
-    <t xml:space="preserve">Fritt fiske langs grunn tilhÃ¸rende Lima gÃ¥rdene. Langs vannet for Ã¸vrig kan fiske skje etter avtale med grunneier </t>
+    <t xml:space="preserve">Fritt fiske langs grunn tilhørende Lima gårdene. Langs vannet for øvrig kan fiske skje etter avtale med grunneier </t>
   </si>
   <si>
     <t>6519596.30</t>
@@ -316,7 +310,7 @@
     <t>Limavatnet</t>
   </si>
   <si>
-    <t xml:space="preserve">Fritt fiske langs grunn tilhÃ¸rende Ytre Lima gÃ¥rdene. Langs vannet for Ã¸vrig kan fiske skje etter avtale med grunneier </t>
+    <t xml:space="preserve">Fritt fiske langs grunn tilhørende Ytre Lima gårdene. Langs vannet for øvrig kan fiske skje etter avtale med grunneier </t>
   </si>
   <si>
     <t>6520874.01</t>
@@ -334,7 +328,7 @@
     <t>Flassavatnet</t>
   </si>
   <si>
-    <t xml:space="preserve">Fritt fiske langs grunn som hÃ¸rer til gÃ¥rdene pÃ¥ Ytre Lima. For Ã¸vrig kan fiske skje etter avtale med grunneier </t>
+    <t xml:space="preserve">Fritt fiske langs grunn som hører til gårdene på Ytre Lima. For øvrig kan fiske skje etter avtale med grunneier </t>
   </si>
   <si>
     <t>6521461.22</t>
@@ -352,7 +346,7 @@
     <t>Ned. Bergsvatnet</t>
   </si>
   <si>
-    <t xml:space="preserve">Fritt fiske langs grunn som hÃ¸rer til gÃ¥rden Berge. For Ã¸vrig kan fiske skje etter avtale med grunneier </t>
+    <t xml:space="preserve">Fritt fiske langs grunn som hører til gården Berge. For øvrig kan fiske skje etter avtale med grunneier </t>
   </si>
   <si>
     <t>6517008.09</t>
@@ -370,10 +364,10 @@
     <t xml:space="preserve">Oltedalvassdraget </t>
   </si>
   <si>
-    <t>Store ForetjÃ¸rn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fritt fiske langs grunn tilhÃ¸rende JÃ¦ren friluftsrÃ¥d. For Ã¸vrig kan fiske skje etter avtale med grunneier </t>
+    <t>Store Foretjørn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritt fiske langs grunn tilhørende Jæren friluftsråd. For øvrig kan fiske skje etter avtale med grunneier </t>
   </si>
   <si>
     <t>6517431.94</t>
@@ -388,7 +382,7 @@
     <t>58.76367899</t>
   </si>
   <si>
-    <t xml:space="preserve">Litle ForetjÃ¸rn </t>
+    <t xml:space="preserve">Litle Foretjørn </t>
   </si>
   <si>
     <t>6517949.30</t>
@@ -418,7 +412,7 @@
     <t>58.77468793</t>
   </si>
   <si>
-    <t>MjÃ¥vatnet</t>
+    <t>Mjåvatnet</t>
   </si>
   <si>
     <t>6519227.58</t>
@@ -466,7 +460,7 @@
     <t>Oltedalsvatnet</t>
   </si>
   <si>
-    <t xml:space="preserve">Fritt fiske langs grunn tilhÃ¸rende gÃ¥rden Rage. For Ã¸vrig kan fiske skje etter avtale med grunneier </t>
+    <t xml:space="preserve">Fritt fiske langs grunn tilhørende gården Rage. For øvrig kan fiske skje etter avtale med grunneier </t>
   </si>
   <si>
     <t>6525595.58</t>
@@ -514,7 +508,7 @@
     <t>58.82911513</t>
   </si>
   <si>
-    <t>RÃ¥ssavatnet</t>
+    <t>Råssavatnet</t>
   </si>
   <si>
     <t>6519175.09</t>
@@ -529,7 +523,7 @@
     <t>58.78433285</t>
   </si>
   <si>
-    <t>ByrkjedalslonÃ¥</t>
+    <t>Byrkjedalslonå</t>
   </si>
   <si>
     <t>6518974.15</t>
@@ -544,7 +538,7 @@
     <t>58.78392471</t>
   </si>
   <si>
-    <t>AustdaltjÃ¸rn</t>
+    <t>Austdaltjørn</t>
   </si>
   <si>
     <t>6519092.59</t>
@@ -559,7 +553,7 @@
     <t>58.78221345</t>
   </si>
   <si>
-    <t>Djupavatnet og DjupatjÃ¸rn</t>
+    <t>Djupavatnet og Djupatjørn</t>
   </si>
   <si>
     <t xml:space="preserve">Fritt fiske med stang fra land </t>
@@ -580,7 +574,7 @@
     <t xml:space="preserve">Frafjordvassdraget </t>
   </si>
   <si>
-    <t>GiljastÃ¸lsvatnet</t>
+    <t>Giljastølsvatnet</t>
   </si>
   <si>
     <t>6527964.64</t>
@@ -628,7 +622,7 @@
     <t>58.87681769</t>
   </si>
   <si>
-    <t>FodnastÃ¸lvatn</t>
+    <t>Fodnastølvatn</t>
   </si>
   <si>
     <t>6528102.02</t>
@@ -643,7 +637,7 @@
     <t>58.86512055</t>
   </si>
   <si>
-    <t>StÃ¸lsvatn</t>
+    <t>Stølsvatn</t>
   </si>
   <si>
     <t>6529639.64</t>
@@ -673,7 +667,7 @@
     <t>58.87627988</t>
   </si>
   <si>
-    <t>Ã˜yavatnet</t>
+    <t>Øyavatnet</t>
   </si>
   <si>
     <t>6529682.79</t>
@@ -688,7 +682,7 @@
     <t>58.88039486</t>
   </si>
   <si>
-    <t>GottvaldstjÃ¸rn</t>
+    <t>Gottvaldstjørn</t>
   </si>
   <si>
     <t>6530184.37</t>
@@ -748,7 +742,7 @@
     <t>58.87535078</t>
   </si>
   <si>
-    <t xml:space="preserve">MÃ¥navatnet </t>
+    <t xml:space="preserve">Månavatnet </t>
   </si>
   <si>
     <t>6531240.65</t>
@@ -769,144 +763,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,179 +794,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1096,365 +814,227 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="10"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blank">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="499BC9"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="6EC038"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F1D130"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="FFA93A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF2D21"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="6C2085"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1463,90 +1043,92 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1556,1121 +1138,2030 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="12.4219" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.2109" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4219" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4219" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="105.422" style="1" customWidth="1"/>
+    <col min="8" max="256" width="10" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" ht="28" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" ht="20.55" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F4" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F7" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E8" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F8" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s" s="8">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s" s="8">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s" s="9">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s" s="8">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E12" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="G12" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s" s="8">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D13" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E13" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" t="s" s="7">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s" s="8">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D14" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E14" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G14" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="7">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s" s="8">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D15" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E15" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s" s="8">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
+      <c r="G16" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" t="s" s="7">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D17" t="s" s="9">
         <v>86</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
+      <c r="G17" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s" s="9">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D18" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E18" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="9">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="G18" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" t="s" s="7">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s" s="8">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D19" t="s" s="9">
         <v>97</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E19" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="9">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G19" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" t="s" s="7">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s" s="8">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s" s="9">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D20" t="s" s="9">
         <v>103</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E20" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s" s="9">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G20" t="s" s="9">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" ht="20.35" customHeight="1">
+      <c r="A21" t="s" s="7">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s" s="8">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s" s="9">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D21" t="s" s="9">
         <v>109</v>
       </c>
-      <c r="G20" t="s">
+      <c r="E21" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s" s="9">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G21" t="s" s="9">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" t="s" s="7">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s" s="8">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s" s="9">
         <v>114</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D22" t="s" s="9">
         <v>115</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E22" t="s" s="9">
         <v>116</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F22" t="s" s="9">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="G22" t="s" s="9">
         <v>118</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" t="s" s="7">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s" s="9">
         <v>121</v>
       </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D23" t="s" s="9">
         <v>122</v>
       </c>
-      <c r="G22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E23" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s" s="9">
         <v>123</v>
       </c>
-      <c r="B23" t="s">
+      <c r="G23" t="s" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s" s="8">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D24" t="s" s="9">
         <v>127</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E24" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s" s="9">
         <v>128</v>
       </c>
-      <c r="B24" t="s">
+      <c r="G24" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" t="s" s="7">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s" s="8">
         <v>130</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s" s="9">
         <v>131</v>
       </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D25" t="s" s="9">
         <v>132</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E25" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s" s="9">
         <v>133</v>
       </c>
-      <c r="B25" t="s">
+      <c r="G25" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" t="s" s="7">
         <v>134</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s" s="8">
         <v>135</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s" s="9">
         <v>136</v>
       </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D26" t="s" s="9">
         <v>137</v>
       </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E26" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s" s="9">
         <v>138</v>
       </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" t="s" s="7">
         <v>139</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s" s="8">
         <v>140</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s" s="9">
         <v>141</v>
       </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D27" t="s" s="9">
         <v>142</v>
       </c>
-      <c r="G26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E27" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s" s="9">
         <v>143</v>
       </c>
-      <c r="B27" t="s">
+      <c r="G27" t="s" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" t="s" s="7">
         <v>144</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s" s="8">
         <v>145</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s" s="9">
         <v>146</v>
       </c>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D28" t="s" s="9">
         <v>147</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E28" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s" s="9">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="G28" t="s" s="9">
         <v>149</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" t="s" s="7">
         <v>150</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s" s="8">
         <v>151</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s" s="9">
         <v>152</v>
       </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D29" t="s" s="9">
         <v>153</v>
       </c>
-      <c r="G28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E29" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s" s="9">
         <v>154</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G29" t="s" s="9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" t="s" s="7">
         <v>155</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s" s="8">
         <v>156</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s" s="9">
         <v>157</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D30" t="s" s="9">
         <v>158</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E30" t="s" s="9">
         <v>159</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="F30" t="s" s="9">
         <v>160</v>
       </c>
-      <c r="B30" t="s">
+      <c r="G30" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" t="s" s="7">
         <v>161</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s" s="8">
         <v>162</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s" s="9">
         <v>163</v>
       </c>
-      <c r="E30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D31" t="s" s="9">
         <v>164</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="E31" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s" s="9">
         <v>165</v>
       </c>
-      <c r="B31" t="s">
+      <c r="G31" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s" s="8">
         <v>167</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s" s="9">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D32" t="s" s="9">
         <v>169</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E32" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s" s="9">
         <v>170</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" t="s" s="7">
         <v>171</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s" s="8">
         <v>172</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s" s="9">
         <v>173</v>
       </c>
-      <c r="E32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33" t="s" s="9">
         <v>174</v>
       </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E33" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="F33" t="s" s="9">
         <v>175</v>
       </c>
-      <c r="B33" t="s">
+      <c r="G33" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" t="s" s="7">
         <v>176</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s" s="8">
         <v>177</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s" s="9">
         <v>178</v>
       </c>
-      <c r="E33" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D34" t="s" s="9">
         <v>179</v>
       </c>
-      <c r="G33" t="s">
+      <c r="E34" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s" s="9">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="G34" t="s" s="9">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" t="s" s="7">
         <v>182</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s" s="8">
         <v>183</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s" s="9">
         <v>184</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D35" t="s" s="9">
         <v>185</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E35" t="s" s="9">
         <v>186</v>
       </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="F35" t="s" s="9">
         <v>187</v>
       </c>
-      <c r="B35" t="s">
+      <c r="G35" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="20.35" customHeight="1">
+      <c r="A36" t="s" s="7">
         <v>188</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s" s="8">
         <v>189</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s" s="9">
         <v>190</v>
       </c>
-      <c r="E35" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D36" t="s" s="9">
         <v>191</v>
       </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E36" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s" s="9">
         <v>192</v>
       </c>
-      <c r="B36" t="s">
+      <c r="G36" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="20.35" customHeight="1">
+      <c r="A37" t="s" s="7">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s" s="8">
         <v>194</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s" s="9">
         <v>195</v>
       </c>
-      <c r="E36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D37" t="s" s="9">
         <v>196</v>
       </c>
-      <c r="G36" t="s">
+      <c r="E37" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F37" t="s" s="9">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="G37" t="s" s="9">
         <v>198</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" ht="20.35" customHeight="1">
+      <c r="A38" t="s" s="7">
         <v>199</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s" s="8">
         <v>200</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s" s="9">
         <v>201</v>
       </c>
-      <c r="E37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D38" t="s" s="9">
         <v>202</v>
       </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="E38" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F38" t="s" s="9">
         <v>203</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G38" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" ht="20.35" customHeight="1">
+      <c r="A39" t="s" s="7">
         <v>204</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s" s="8">
         <v>205</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s" s="9">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D39" t="s" s="9">
         <v>207</v>
       </c>
-      <c r="G38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="E39" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F39" t="s" s="9">
         <v>208</v>
       </c>
-      <c r="B39" t="s">
+      <c r="G39" t="s" s="9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" ht="20.35" customHeight="1">
+      <c r="A40" t="s" s="7">
         <v>209</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s" s="9">
         <v>211</v>
       </c>
-      <c r="E39" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D40" t="s" s="9">
         <v>212</v>
       </c>
-      <c r="G39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="E40" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F40" t="s" s="9">
         <v>213</v>
       </c>
-      <c r="B40" t="s">
+      <c r="G40" t="s" s="9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" ht="20.35" customHeight="1">
+      <c r="A41" t="s" s="7">
         <v>214</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s" s="8">
         <v>215</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s" s="9">
         <v>216</v>
       </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D41" t="s" s="9">
         <v>217</v>
       </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="E41" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s" s="9">
         <v>218</v>
       </c>
-      <c r="B41" t="s">
+      <c r="G41" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" ht="20.35" customHeight="1">
+      <c r="A42" t="s" s="7">
         <v>219</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s" s="8">
         <v>220</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s" s="9">
         <v>221</v>
       </c>
-      <c r="E41" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D42" t="s" s="9">
         <v>222</v>
       </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E42" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F42" t="s" s="9">
         <v>223</v>
       </c>
-      <c r="B42" t="s">
+      <c r="G42" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" ht="20.35" customHeight="1">
+      <c r="A43" t="s" s="7">
         <v>224</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s" s="8">
         <v>225</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s" s="9">
         <v>226</v>
       </c>
-      <c r="E42" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D43" t="s" s="9">
         <v>227</v>
       </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="E43" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F43" t="s" s="9">
         <v>228</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" ht="20.35" customHeight="1">
+      <c r="A44" t="s" s="7">
         <v>229</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s" s="8">
         <v>230</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s" s="9">
         <v>231</v>
       </c>
-      <c r="E43" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D44" t="s" s="9">
         <v>232</v>
       </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E44" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F44" t="s" s="9">
         <v>233</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" ht="20.35" customHeight="1">
+      <c r="A45" t="s" s="7">
         <v>234</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s" s="8">
         <v>235</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C45" t="s" s="9">
         <v>236</v>
       </c>
-      <c r="E44" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D45" t="s" s="9">
         <v>237</v>
       </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="E45" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F45" t="s" s="9">
         <v>238</v>
       </c>
-      <c r="B45" t="s">
+      <c r="G45" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" ht="20.35" customHeight="1">
+      <c r="A46" t="s" s="7">
         <v>239</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s" s="8">
         <v>240</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C46" t="s" s="9">
         <v>241</v>
       </c>
-      <c r="E45" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D46" t="s" s="9">
         <v>242</v>
       </c>
-      <c r="G45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E46" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s" s="9">
         <v>243</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G46" t="s" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" ht="20.35" customHeight="1">
+      <c r="A47" t="s" s="7">
         <v>244</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s" s="8">
         <v>245</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s" s="9">
         <v>246</v>
       </c>
-      <c r="E46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D47" t="s" s="9">
         <v>247</v>
       </c>
-      <c r="G46" t="s">
-        <v>117</v>
+      <c r="E47" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="F47" t="s" s="9">
+        <v>248</v>
+      </c>
+      <c r="G47" t="s" s="9">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>